--- a/Stocks/LUPIN.xlsx
+++ b/Stocks/LUPIN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1319.6666666666667</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1043.056882667951</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1062.2214920530303</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>22.012002713837077</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>13.049999999999955</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>35</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.37285714285714155</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1107.2942798626138</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-22.396286958317887</v>
       </c>
       <c r="Y67">
         <v>-10.44568630790852</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1003</v>
+      </c>
+      <c r="D83">
+        <v>1008</v>
+      </c>
+      <c r="E83">
+        <v>986</v>
+      </c>
+      <c r="F83">
+        <v>987</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>993.66666666666663</v>
+      </c>
+      <c r="H83">
+        <v>979.18605891239417</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>980.21537494913036</v>
+      </c>
+      <c r="K83">
+        <v>954.00105245585166</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>65.058012719959649</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>22</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>970.37920693772071</v>
+      </c>
+      <c r="W83">
+        <v>1003.4129635795686</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-33.033756641847845</v>
+      </c>
+      <c r="Y83">
+        <v>-40.447335528275417</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>987.7</v>
+      </c>
+      <c r="D84">
+        <v>998.95</v>
+      </c>
+      <c r="E84">
+        <v>983.05</v>
+      </c>
+      <c r="F84">
+        <v>985.85</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>989.2833333333333</v>
+      </c>
+      <c r="H84">
+        <v>984.23469612286374</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>984.37862496043476</v>
+      </c>
+      <c r="K84">
+        <v>960.45637413232907</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N84">
+        <v>63.967937830088182</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>2.8000000000000682</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>15.900000000000091</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.1761006289308209</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>972.75932894730215</v>
+      </c>
+      <c r="W84">
+        <v>1002.1120033144153</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-29.352674367113195</v>
+      </c>
+      <c r="Y84">
+        <v>-38.22840329604297</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>995</v>
+      </c>
+      <c r="D85">
+        <v>998.4</v>
+      </c>
+      <c r="E85">
+        <v>985.85</v>
+      </c>
+      <c r="F85">
+        <v>986.05</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>990.1</v>
+      </c>
+      <c r="H85">
+        <v>987.16734806143188</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>987.49448608033811</v>
+      </c>
+      <c r="K85">
+        <v>966.09940210292257</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>64.098707730276132</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>0.19999999999993179</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>12.549999999999955</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>1.5936254980074303E-2</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>974.80404757079407</v>
+      </c>
+      <c r="W85">
+        <v>1000.9222252911253</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-26.118177720331232</v>
+      </c>
+      <c r="Y85">
+        <v>-35.806358180900624</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>979</v>
+      </c>
+      <c r="D86">
+        <v>995.75</v>
+      </c>
+      <c r="E86">
+        <v>974.6</v>
+      </c>
+      <c r="F86">
+        <v>978.75</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>983.0333333333333</v>
+      </c>
+      <c r="H86">
+        <v>985.10034069738253</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>989.32904472915186</v>
+      </c>
+      <c r="K86">
+        <v>967.98842385782871</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>54.992725546727193</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>4.1499999999999773</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>21.149999999999977</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.19621749408983366</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>975.41111717528725</v>
+      </c>
+      <c r="W86">
+        <v>999.27983823252339</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-23.868721057236144</v>
+      </c>
+      <c r="Y86">
+        <v>-33.418830756167729</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>985</v>
+      </c>
+      <c r="D87">
+        <v>1009.4</v>
+      </c>
+      <c r="E87">
+        <v>982</v>
+      </c>
+      <c r="F87">
+        <v>996</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>995.80000000000007</v>
+      </c>
+      <c r="H87">
+        <v>990.45017034869124</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>993.78925701156254</v>
+      </c>
+      <c r="K87">
+        <v>971.10210744497783</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>68.296200307312844</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>14</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>27.399999999999977</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.51094890510948943</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>978.57863760985845</v>
+      </c>
+      <c r="W87">
+        <v>999.03688725233644</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-20.458249642477995</v>
+      </c>
+      <c r="Y87">
+        <v>-30.826714533429783</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>995</v>
+      </c>
+      <c r="D88">
+        <v>1006.45</v>
+      </c>
+      <c r="E88">
+        <v>985.05</v>
+      </c>
+      <c r="F88">
+        <v>995</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>995.5</v>
+      </c>
+      <c r="H88">
+        <v>992.97508517434562</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>996.60275545343757</v>
+      </c>
+      <c r="K88">
+        <v>974.20163912387159</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>66.864026212629852</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>9.9500000000000455</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>21.400000000000091</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.46495327102803752</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>981.10500105449557</v>
+      </c>
+      <c r="W88">
+        <v>998.73785856697816</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-17.632857512482587</v>
+      </c>
+      <c r="Y88">
+        <v>-28.187943129240345</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1005</v>
+      </c>
+      <c r="D89">
+        <v>1005.05</v>
+      </c>
+      <c r="E89">
+        <v>986.05</v>
+      </c>
+      <c r="F89">
+        <v>990.75</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>993.94999999999993</v>
+      </c>
+      <c r="H89">
+        <v>993.46254258717272</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>998.47992090822925</v>
+      </c>
+      <c r="K89">
+        <v>976.83460820745563</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>60.161800633653414</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>4.7000000000000455</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>19</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.24736842105263399</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>982.5888470461116</v>
+      </c>
+      <c r="W89">
+        <v>998.14616533979461</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-15.557318293683011</v>
+      </c>
+      <c r="Y89">
+        <v>-25.661818162128878</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>987</v>
+      </c>
+      <c r="D90">
+        <v>991.35</v>
+      </c>
+      <c r="E90">
+        <v>967</v>
+      </c>
+      <c r="F90">
+        <v>970</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>976.11666666666667</v>
+      </c>
+      <c r="H90">
+        <v>984.78960462691975</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>996.89549403973388</v>
+      </c>
+      <c r="K90">
+        <v>974.64913971690999</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N90">
+        <v>37.327275220599788</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>24.350000000000023</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.12320328542094444</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V90">
+        <v>980.65210134670986</v>
+      </c>
+      <c r="W90">
+        <v>996.06126420351347</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-15.409162856803619</v>
+      </c>
+      <c r="Y90">
+        <v>-23.611287101063827</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>975.9</v>
+      </c>
+      <c r="D91">
+        <v>981.7</v>
+      </c>
+      <c r="E91">
+        <v>970.35</v>
+      </c>
+      <c r="F91">
+        <v>977</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>976.35</v>
+      </c>
+      <c r="H91">
+        <v>980.56980231345983</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>993.51871758645973</v>
+      </c>
+      <c r="K91">
+        <v>973.69377533537443</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>45.974211003502347</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>6.6499999999999773</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>11.350000000000023</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.58590308370043731</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>980.09023960106219</v>
+      </c>
+      <c r="W91">
+        <v>994.64931870695693</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-14.559079105894739</v>
+      </c>
+      <c r="Y91">
+        <v>-21.800845502030008</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>978.5</v>
+      </c>
+      <c r="D92">
+        <v>986.5</v>
+      </c>
+      <c r="E92">
+        <v>960.2</v>
+      </c>
+      <c r="F92">
+        <v>971.2</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>972.63333333333333</v>
+      </c>
+      <c r="H92">
+        <v>976.60156782339664</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>991.95900256724644</v>
+      </c>
+      <c r="K92">
+        <v>970.69515859418016</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>40.226025811865817</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>26.299999999999955</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.41825095057034295</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>978.72251043166807</v>
+      </c>
+      <c r="W92">
+        <v>992.9123321360712</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-14.18982170440313</v>
+      </c>
+      <c r="Y92">
+        <v>-20.278640742504631</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>975</v>
+      </c>
+      <c r="D93">
+        <v>982.95</v>
+      </c>
+      <c r="E93">
+        <v>968.15</v>
+      </c>
+      <c r="F93">
+        <v>980</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>977.0333333333333</v>
+      </c>
+      <c r="H93">
+        <v>976.81745057836497</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>989.95700199674729</v>
+      </c>
+      <c r="K93">
+        <v>970.12956779547346</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>51.683238510588772</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>11.850000000000023</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>14.800000000000068</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.80067567567567355</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>978.91904728833447</v>
+      </c>
+      <c r="W93">
+        <v>991.95586308895486</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-13.036815800620388</v>
+      </c>
+      <c r="Y93">
+        <v>-18.830275754127783</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>979</v>
+      </c>
+      <c r="D94">
+        <v>988</v>
+      </c>
+      <c r="E94">
+        <v>976.15</v>
+      </c>
+      <c r="F94">
+        <v>981.15</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>981.76666666666677</v>
+      </c>
+      <c r="H94">
+        <v>979.29205862251592</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>989.52211266413678</v>
+      </c>
+      <c r="K94">
+        <v>971.46744161870163</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>53.150137946796569</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>11.850000000000023</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.42194092827004137</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>979.26227078243687</v>
+      </c>
+      <c r="W94">
+        <v>991.15542878606936</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-11.893158003632493</v>
+      </c>
+      <c r="Y94">
+        <v>-17.442852204028725</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>985.7</v>
+      </c>
+      <c r="D95">
+        <v>1009</v>
+      </c>
+      <c r="E95">
+        <v>974</v>
+      </c>
+      <c r="F95">
+        <v>995.55</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>992.85</v>
+      </c>
+      <c r="H95">
+        <v>986.07102931125792</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>993.85053207210638</v>
+      </c>
+      <c r="K95">
+        <v>972.03023237010132</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>68.241705705940376</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>21.549999999999955</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>35</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.61571428571428444</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>981.76807527744654</v>
+      </c>
+      <c r="W95">
+        <v>991.48095257969385</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-9.7128773022473069</v>
+      </c>
+      <c r="Y95">
+        <v>-15.896857223672441</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>997.9</v>
+      </c>
+      <c r="D96">
+        <v>1017.75</v>
+      </c>
+      <c r="E96">
+        <v>995.55</v>
+      </c>
+      <c r="F96">
+        <v>1004.5</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1005.9333333333334</v>
+      </c>
+      <c r="H96">
+        <v>996.00218132229566</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>999.16152494497157</v>
+      </c>
+      <c r="K96">
+        <v>977.25684739896769</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>74.598708427696508</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>8.9500000000000455</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>22.200000000000045</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.40315315315315436</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>985.26529446553172</v>
+      </c>
+      <c r="W96">
+        <v>992.44532646267953</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-7.1800319971478075</v>
+      </c>
+      <c r="Y96">
+        <v>-14.153492178367514</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>991.75</v>
+      </c>
+      <c r="D97">
+        <v>1015</v>
+      </c>
+      <c r="E97">
+        <v>990.05</v>
+      </c>
+      <c r="F97">
+        <v>1006</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1003.6833333333334</v>
+      </c>
+      <c r="H97">
+        <v>999.84275732781452</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>1002.6811860683113</v>
+      </c>
+      <c r="K97">
+        <v>980.09977019919711</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>75.621032921490155</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>15.950000000000045</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>24.950000000000045</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.6392785571142291</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>988.45524916314218</v>
+      </c>
+      <c r="W97">
+        <v>993.44937635433291</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-4.9941271911907279</v>
+      </c>
+      <c r="Y97">
+        <v>-12.321619180932156</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1015.95</v>
+      </c>
+      <c r="D98">
+        <v>1016</v>
+      </c>
+      <c r="E98">
+        <v>1000.1</v>
+      </c>
+      <c r="F98">
+        <v>1009.95</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1008.6833333333334</v>
+      </c>
+      <c r="H98">
+        <v>1004.263045330574</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>1005.6409224975754</v>
+      </c>
+      <c r="K98">
+        <v>984.54426571048668</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>78.472929366880834</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>9.8500000000000227</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>15.899999999999977</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.61949685534591425</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>991.76213390727412</v>
+      </c>
+      <c r="W98">
+        <v>994.6716447725305</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-2.9095108652563795</v>
+      </c>
+      <c r="Y98">
+        <v>-10.439197517797002</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1010</v>
+      </c>
+      <c r="D99">
+        <v>1021.7</v>
+      </c>
+      <c r="E99">
+        <v>1001.5</v>
+      </c>
+      <c r="F99">
+        <v>1007.45</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1010.2166666666667</v>
+      </c>
+      <c r="H99">
+        <v>1007.2398559986203</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>1009.2096063870031</v>
+      </c>
+      <c r="K99">
+        <v>988.31220666371189</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>71.825551784975872</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>5.9500000000000455</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>20.200000000000045</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.29455445544554615</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>994.17565176769347</v>
+      </c>
+      <c r="W99">
+        <v>995.61818960419487</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-1.4425378365014012</v>
+      </c>
+      <c r="Y99">
+        <v>-8.6398655815378813</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1009.9</v>
+      </c>
+      <c r="D100">
+        <v>1009.9</v>
+      </c>
+      <c r="E100">
+        <v>997</v>
+      </c>
+      <c r="F100">
+        <v>1003.05</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1003.3166666666666</v>
+      </c>
+      <c r="H100">
+        <v>1005.2782613326435</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>1009.3630271898912</v>
+      </c>
+      <c r="K100">
+        <v>990.24282740510921</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>60.542786150617033</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>6.0499999999999545</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>12.899999999999977</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.46899224806201278</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>995.54093611112523</v>
+      </c>
+      <c r="W100">
+        <v>996.16869407795821</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-0.62775796683297358</v>
+      </c>
+      <c r="Y100">
+        <v>-7.0374440585968996</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1006</v>
+      </c>
+      <c r="D101">
+        <v>1039.9000000000001</v>
+      </c>
+      <c r="E101">
+        <v>1004.45</v>
+      </c>
+      <c r="F101">
+        <v>1029.5</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1024.6166666666668</v>
+      </c>
+      <c r="H101">
+        <v>1014.9474639996552</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>1016.1490211476932</v>
+      </c>
+      <c r="K101">
+        <v>993.39997687064056</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N101">
+        <v>81.903464671133108</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>25.049999999999955</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>35.450000000000045</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.70662905500704998</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>1000.7654074786444</v>
+      </c>
+      <c r="W101">
+        <v>998.63767970181311</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>2.127727776831307</v>
+      </c>
+      <c r="Y101">
+        <v>-5.2044096915112581</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1030</v>
+      </c>
+      <c r="D102">
+        <v>1044.7</v>
+      </c>
+      <c r="E102">
+        <v>1006.1</v>
+      </c>
+      <c r="F102">
+        <v>1011.05</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1020.6166666666668</v>
+      </c>
+      <c r="H102">
+        <v>1017.782065333161</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1022.4936831148725</v>
+      </c>
+      <c r="K102">
+        <v>996.2222042327204</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>55.639817629447165</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>4.9499999999999318</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>38.600000000000023</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.12823834196891007</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>1002.3476524819299</v>
+      </c>
+      <c r="W102">
+        <v>999.55711083501217</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>2.7905416469177453</v>
+      </c>
+      <c r="Y102">
+        <v>-3.6054194238254573</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1014.5</v>
+      </c>
+      <c r="D103">
+        <v>1016.45</v>
+      </c>
+      <c r="E103">
+        <v>982.2</v>
+      </c>
+      <c r="F103">
+        <v>995</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>997.88333333333333</v>
+      </c>
+      <c r="H103">
+        <v>1007.8326993332471</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1021.1506424226786</v>
+      </c>
+      <c r="K103">
+        <v>993.1061588476714</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>41.254664274320533</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>12.799999999999955</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>34.25</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.37372262773722498</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>1001.2172444077869</v>
+      </c>
+      <c r="W103">
+        <v>999.21954706945576</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>1.9976973383311361</v>
+      </c>
+      <c r="Y103">
+        <v>-2.4847960713941388</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>995</v>
+      </c>
+      <c r="D104">
+        <v>1012.4</v>
+      </c>
+      <c r="E104">
+        <v>993</v>
+      </c>
+      <c r="F104">
+        <v>1008</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1004.4666666666667</v>
+      </c>
+      <c r="H104">
+        <v>1006.1496829999569</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>1019.2060552176389</v>
+      </c>
+      <c r="K104">
+        <v>993.08256799263336</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>53.441836932799468</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>15</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>19.399999999999977</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.77319587628866071</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>1002.2607452681274</v>
+      </c>
+      <c r="W104">
+        <v>999.86995099023682</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>2.3907942778905635</v>
+      </c>
+      <c r="Y104">
+        <v>-1.5096780015371984</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>1010</v>
+      </c>
+      <c r="D105">
+        <v>1011.8</v>
+      </c>
+      <c r="E105">
+        <v>995.5</v>
+      </c>
+      <c r="F105">
+        <v>999.5</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>1002.2666666666668</v>
+      </c>
+      <c r="H105">
+        <v>1004.2081748333119</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>1017.5602651692747</v>
+      </c>
+      <c r="K105">
+        <v>993.61977510538145</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N105">
+        <v>45.694093566135741</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>16.299999999999955</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.24539877300613566</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>1001.8360152268771</v>
+      </c>
+      <c r="W105">
+        <v>999.84254721318223</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>1.9934680136948373</v>
+      </c>
+      <c r="Y105">
+        <v>-0.80904879849079125</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>1001.9</v>
+      </c>
+      <c r="D106">
+        <v>1008.9</v>
+      </c>
+      <c r="E106">
+        <v>996</v>
+      </c>
+      <c r="F106">
+        <v>1007</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>1003.9666666666667</v>
+      </c>
+      <c r="H106">
+        <v>1004.0874207499893</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J106">
+        <v>1015.6357617983248</v>
+      </c>
+      <c r="K106">
+        <v>994.14871397085221</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N106">
+        <v>53.180493614847414</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>12.899999999999977</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.85271317829457516</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>1002.6304744227422</v>
+      </c>
+      <c r="W106">
+        <v>1000.3727289010947</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>2.2577455216475073</v>
+      </c>
+      <c r="Y106">
+        <v>-0.19568993446313143</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>1013.7</v>
+      </c>
+      <c r="D107">
+        <v>1017.8</v>
+      </c>
+      <c r="E107">
+        <v>1006.8</v>
+      </c>
+      <c r="F107">
+        <v>1013</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>1012.5333333333333</v>
+      </c>
+      <c r="H107">
+        <v>1008.3103770416612</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>1016.1167036209192</v>
+      </c>
+      <c r="K107">
+        <v>996.96011086621843</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>58.852875418256858</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>6.2000000000000455</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>11</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.56363636363636782</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>1004.2257860500126</v>
+      </c>
+      <c r="W107">
+        <v>1001.3080823158284</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>2.9177037341842151</v>
+      </c>
+      <c r="Y107">
+        <v>0.42698879926633793</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
